--- a/positive_reviews_examples.xlsx
+++ b/positive_reviews_examples.xlsx
@@ -458,14 +458,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>많이 그려봐야 할 것 같습니다^^</t>
+          <t>테드 강의 통해서 여러가지 세계 삶의 모습과 영어에 대해서도 배울 수 있었어요.
+교재가 혹시 따로 있나요? 제공된 교안외에도??
+수업 영상 로드할때 자꾸 끊어짐이 있어서 아슁웠어요</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -474,8 +476,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>문해력 수업의 기초 강의입니다.
-자세한 교안 파일이 올려져 있으면 더 좋았을 듯 합니다.</t>
+          <t>바쁜 업무와 일상 속 작은 휴식</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -491,7 +492,10 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>생각보다 훨씬 재미있고 유익한 영어 연수였습니다.</t>
+          <t>평소 보드게임을 좋아하시는, 관심있는 선생님들께 강추드리는 연수입니다.
+보드게임을 활용해 수업을 진행하고 싶었으나, 어떻게 교과와 연계할 수 있는지, 보드게임 활용 수업을 진행할 때의 유의점, 꿀팁들이 많이 들어 있는 연수입니다.
+그리고 평소 취미로 보드게임을 할 때에 어떻게 하면 수업, 교과와 연계할 수 있을 지에 대해서 곰곰히 생각을 하게 되는 연수입니다.
+좋은 연수 감사합니다^^</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -507,7 +511,8 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>직업눌이, 학급 경영에 따뜻함이 피어납니다. 연수 이수 후 2년째 직업놀이 중입니다. 아이들이 참 좋아합니다.</t>
+          <t>학습연구년제로 올 1년을 보내면서 자신을 알아가고 있는 중입니다.
+이번 연수를 통해 다양한 유형의 성격을 이해함으로써 보다 넓은 안목으로 사람들을 바라볼 수 있는 계기가 된 것 같아요. 감사드립니다.^^</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -523,7 +528,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>한국어교원양성과정 Ⅰ연수 수강이 쉽지는 않았다.  나에겐 고등 국어 문법을 다시 공부하는 이상의 난이도였던 것 같다. 그렇지만 꼭 듣고 싶었던 연수였던 만큼 유익한 연수여서 뿌듯하다. 좋은 연수가 개설되어 감사합니다.^^</t>
+          <t>민화를 보는 것을 좋아했지만 직접 그려보는 기회는 없었다. 실제해 보니 작가님처럼 예쁘게 되지 않지만 예쁜 사진을 보면 민화로 그려보고 싶다는 생각이 들었다. 선명한 색감이 맘에 들고 민화기 지닌 섬세한 기법도 배울만 하다.</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -539,7 +544,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>교실에 있는 스마트 기기를 어느 정도 사용한다고 생각했는데, 이 연수를 통해 보다 더 많은 사용 방법을 알게 되었고, 수업에 필요성 또한 느끼게 되었습니다.</t>
+          <t>엑셀에 대해 자세하게 배우게 되어, 실무할 때 유용할듯합니다.</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -555,7 +560,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>입문자용으로 구글 사용의 전체적 맥락을 잡기에 좋은연수였습니다. 그리고 구글을 사용하고자하는 마음을 갖게 하는 연수였습니다 교사가 직접 현장에서 사용하는 구글로 연수 하다보니 도움이 더욱 많이 되었습니다. 구글이 앞으로 정말 필요한 프로그램이라는 것을 절실히 느꼈고 모든 프로그램을 독식할 수도있겠구나하는 거대함도 느꼈습니다. 알찬 설명 감사했습니다.</t>
+          <t>의무연수여서 들었는데 재미있게 연수를 받았습니다.</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -571,7 +576,8 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>심화해서 잘 연수하고 자격증까지 받았으면 좋겠습니다</t>
+          <t>매년 영어공부를 해보겠다고 맘은 굴뚝같이 먹지만 실천이 잘 안돼죠~
+올해 또 다짐해 봅니다~ 하루에 단 10분이라도 반복학습으로 꼭 여행가서 몇마디라고 내뱉을 수 있게요~</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -587,7 +593,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>좋은 강의 감사합니다.</t>
+          <t xml:space="preserve">때로는 백마디 말보다 1권의 그림책이 아이들에게 주는 메시지가 크고 아이들과 같이 깊이 있는 생각을 나눌 수 있는 시간이 되는 것 같습니다. 그림책에 관심 있으셨던 분들 들으면 많이 도움되리라 생각합니다. </t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -603,7 +609,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>아동인권과 더불어 교권보호에 관한 사항을 정확하게 인지하고 있어야만 무너지고 있는 교육현장을 지킬 수 있지 않을까 생각합니다.</t>
+          <t>평소 멍멍샘 팬이어서 학급 경영에 유튜브도 많이 참고했는데
+어쩜 이리 제 관심사에 딱 맞는 연수를 열어주셔서
+급히 듣게 되었습니다.
+해외 학교 생활에 대하여 그 동안 궁금했던 내용들을 속시원히 긁어주셔서 너무 만족스러운 연수였습니다. 강의가 재미있어 한달음에 들었네요.
+특히 여러 나라의 정보는 얻기가 어려운데 많은 학교에서 실제 근무하는 선생님들의 인터뷰 및 브이로그를 보니 영상으로나마 접하는 해외 학교 생활에 설레고 뿌듯한 감정이 들었습니다.
+해외 학교에 대한 관심만 있지 쉬운 결정이 아닌데 지원하여 일하시는 여러 선생님들을 보고 비록 한국 학교에서 근무하지만 동기부여도 많이 받았습니다. 어느 곳에 있든지 최선을 다해야겠다는 생각도 들었어요.
+알찬 연수 기획하고 만들어주셔서 감사합니다!! ^^</t>
         </is>
       </c>
       <c r="B11" t="n">
